--- a/CheckInApp/Content/Template/TemplateImportQuestion.xlsx
+++ b/CheckInApp/Content/Template/TemplateImportQuestion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Freelance\SamSung\QAA\checkinapp\CheckInApp\Content\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nội Dung Câu hỏi</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
+  </si>
+  <si>
+    <t>Mã Câu Hỏi</t>
   </si>
 </sst>
 </file>
@@ -359,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,9 +373,10 @@
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,6 +394,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
